--- a/biology/Botanique/Tillandsia_pallidoflavens/Tillandsia_pallidoflavens.xlsx
+++ b/biology/Botanique/Tillandsia_pallidoflavens/Tillandsia_pallidoflavens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia pallidoflavens Mez est une plante de la famille des Bromeliaceae.
 L'épithète pallidoflavens, signifiant « tirant sur le jaune-blond pâle », se rapporte au coloris floral.
@@ -512,12 +524,14 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia pallidoflavens Mez, in Repert. Spec. Nov. Regni Veg. 3: 36 (1906)
-Diagnose originale[1] :
+Diagnose originale :
 « Foliis dense utriculatim rosulatis. minutissime pallideque lepidoto-punctulatis; scapo erecto, vaginis subfoliaceis inferioribus internodia longe superioribus paullo superantibus praedito; inflorescentia erecta, ample tripinnatim panniculata[sic], subglabra; spicis breviter stipitatis, optime pinnatis, usque ad 12-floris; bracteis primariis omnibus quam ramuli axillares multo brevioribus; bracteis florigeris cum sepalis dense sed perappresse lepidotis, laevibus, subreflexis, +/- 4 mm longis; sepalis bracteas multo superantibus, liberis, asymmetricis; petalis pallide flavis, stamina optime superantibus; stylo brevi. »
-Type : leg. A. Weberbauer, n° 3298, 1903-07-05 ; "Peruvia, prov. Huari, dept. Ancachs: in valle Puccha super Masin, alt. 2600-2700 m" ; Holotypus B (Herb. Berol.)[1].
+Type : leg. A. Weberbauer, n° 3298, 1903-07-05 ; "Peruvia, prov. Huari, dept. Ancachs: in valle Puccha super Masin, alt. 2600-2700 m" ; Holotypus B (Herb. Berol.).
 </t>
         </is>
       </c>
@@ -548,10 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synonymie nomenclaturale
-Racinaea pallidoflavens (Mez) M.A.Spencer &amp; L.B.Sm.
-Synonymie taxonomique
-(aucune)</t>
+          <t>Synonymie nomenclaturale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Racinaea pallidoflavens (Mez) M.A.Spencer &amp; L.B.Sm.</t>
         </is>
       </c>
     </row>
@@ -576,10 +593,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie taxonomique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(aucune)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +629,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et habitat</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Biotype : plante herbacée, en rosette, monocarpique vivace par ses rejets latéraux ; épiphyte[1],[2].
-Habitat : forêts et buissons[2].
-Altitude : 1700-2500 m[2].</t>
-        </is>
-      </c>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -634,17 +657,16 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Amérique du sud :
- Équateur
-Sud de l'Equateur [2]
- Pérou
-Ancash[1]
-Nord et centre du Pérou[2]</t>
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Biotype : plante herbacée, en rosette, monocarpique vivace par ses rejets latéraux ; épiphyte,.
+Habitat : forêts et buissons.
+Altitude : 1700-2500 m.</t>
         </is>
       </c>
     </row>
@@ -669,10 +691,49 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Amérique du sud :
+ Équateur
+Sud de l'Equateur 
+ Pérou
+Ancash
+Nord et centre du Pérou</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tillandsia_pallidoflavens</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_pallidoflavens</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Comportement en culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
